--- a/xls/TABLE_英雄.xlsx
+++ b/xls/TABLE_英雄.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="1600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="1598">
   <si>
     <t>ID</t>
   </si>
@@ -4785,6 +4785,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>s</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>i</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4801,10 +4805,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>i</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>s</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4830,14 +4830,6 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -5329,7 +5321,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5510,12 +5502,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5528,7 +5514,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="60">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -5562,7 +5548,6 @@
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
@@ -5572,7 +5557,6 @@
     <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -5885,7 +5869,7 @@
   <dimension ref="A1:Y252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5974,73 +5958,73 @@
     </row>
     <row r="2" spans="1:25" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1598</v>
+        <v>1587</v>
       </c>
       <c r="B2" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="C2" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="D2" t="s">
-        <v>1599</v>
+        <v>1585</v>
       </c>
       <c r="E2" t="s">
-        <v>1599</v>
+        <v>1586</v>
       </c>
       <c r="F2" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="G2" t="s">
-        <v>1598</v>
+        <v>1587</v>
       </c>
       <c r="H2" t="s">
-        <v>1598</v>
+        <v>1588</v>
       </c>
       <c r="I2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="M2" t="s">
         <v>1588</v>
       </c>
-      <c r="J2" t="s">
-        <v>1585</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1585</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="Q2" t="s">
         <v>1588</v>
       </c>
-      <c r="M2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1586</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1588</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1588</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1587</v>
-      </c>
       <c r="R2" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="S2" t="s">
         <v>1592</v>
       </c>
       <c r="T2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="W2" t="s">
         <v>1588</v>
-      </c>
-      <c r="U2" t="s">
-        <v>1588</v>
-      </c>
-      <c r="V2" t="s">
-        <v>1590</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1587</v>
       </c>
       <c r="X2" t="s">
         <v>1591</v>
